--- a/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
+++ b/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Photo Club Hub/Photo Club Hub/ViewModel/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D733B55-D1F4-D041-9E8D-EE283FE05784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DEE05-9A51-4445-9709-BE09387C921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A7490BB1-5D67-2C4A-8E3D-CB598F42BEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="151">
   <si>
     <t>Albert</t>
   </si>
@@ -230,17 +230,279 @@
     <t>-</t>
   </si>
   <si>
-    <t>Verjaardag</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>verjaardag</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Bakx</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Bommerzijn</t>
+  </si>
+  <si>
+    <t>Greet</t>
+  </si>
+  <si>
+    <t>Busink</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Gijselhart</t>
+  </si>
+  <si>
+    <t>Hendriek</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Carolien</t>
+  </si>
+  <si>
+    <t>Jeukens</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Kleijnen</t>
+  </si>
+  <si>
+    <t>Emiel</t>
+  </si>
+  <si>
+    <t>Kuipers</t>
+  </si>
+  <si>
+    <t>Gesna</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Oosterbosch</t>
+  </si>
+  <si>
+    <t>Nettie</t>
+  </si>
+  <si>
+    <t>Palen</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Gonda</t>
+  </si>
+  <si>
+    <t>Swemmers</t>
+  </si>
+  <si>
+    <t>Thijssen</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Vugts</t>
+  </si>
+  <si>
+    <t>Roel</t>
+  </si>
+  <si>
+    <t>Woudenberg</t>
+  </si>
+  <si>
+    <t>Zantvoort</t>
+  </si>
+  <si>
+    <t>Bruijn</t>
+  </si>
+  <si>
+    <t>Monique</t>
+  </si>
+  <si>
+    <t>Groot Hulze</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>Helsen</t>
+  </si>
+  <si>
+    <t>Annelies</t>
+  </si>
+  <si>
+    <t>Hendrickx</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Varma</t>
+  </si>
+  <si>
+    <t>Madhav</t>
+  </si>
+  <si>
+    <t>Leenaars-Heesakkers</t>
+  </si>
+  <si>
+    <t>Willy</t>
+  </si>
+  <si>
+    <t>Lanters</t>
+  </si>
+  <si>
+    <t>Marcelle</t>
+  </si>
+  <si>
+    <t>Dekkers</t>
+  </si>
+  <si>
+    <t>Frenkiel</t>
+  </si>
+  <si>
+    <t>Mienie</t>
+  </si>
+  <si>
+    <t>Jonge-Top</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Michael Frenkiel was in 2015 lid, 2016 niet, maar 2019 in ieder geval weer lid.</t>
+  </si>
+  <si>
+    <t>Veen ✝</t>
+  </si>
+  <si>
+    <t>Bushman ✝</t>
+  </si>
+  <si>
+    <t>Michaël</t>
+  </si>
+  <si>
+    <t>23+</t>
+  </si>
+  <si>
+    <t>momenteel  lid</t>
+  </si>
+  <si>
+    <t>OVERLEDEN</t>
+  </si>
+  <si>
+    <t>Gesna is kennelijk rond 2018 getrouwd en is van achternaam veranderd: Leenaars &gt; Heesakkers en Leenaars-Heesakkers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,16 +510,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -265,26 +610,463 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE97132"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE97132"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="174" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <dxfs count="60">
+    <dxf>
+      <numFmt numFmtId="174" formatCode="[$-409]d\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="[$-409]d\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,19 +1082,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D02E6331-806A-F941-93E7-D3A0D1D9BD50}" name="Table2" displayName="Table2" ref="A1:G28" totalsRowShown="0">
-  <autoFilter ref="A1:G28" xr:uid="{D02E6331-806A-F941-93E7-D3A0D1D9BD50}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
-    <sortCondition ref="D1:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D02E6331-806A-F941-93E7-D3A0D1D9BD50}" name="Table2" displayName="Table2" ref="A1:AG57" totalsRowCount="1">
+  <autoFilter ref="A1:AG56" xr:uid="{D02E6331-806A-F941-93E7-D3A0D1D9BD50}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG56">
+    <sortCondition ref="D1:D56"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{430B1ABE-2437-604E-8995-B60B0FA4F7FF}" name="Voornaam"/>
     <tableColumn id="2" xr3:uid="{017CA9F5-2371-8B4D-A4BB-0CE25ED61526}" name="Tussenvoegsel"/>
     <tableColumn id="3" xr3:uid="{D5A45AEA-E584-6C42-9B0F-23A48CD60FB2}" name="Achternaam"/>
-    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="Verjaardag"/>
+    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="31" totalsRowDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="59" totalsRowDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{582DEEA2-04C6-8343-8F3E-50F023FC6F21}" name="2000" dataDxfId="58" totalsRowDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{ABBB74CB-F7FF-E24C-A0DF-45FF0DEB45B8}" name="2001" dataDxfId="57" totalsRowDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{DA3A1A5D-A311-E04F-8429-FBE804C89246}" name="2002" dataDxfId="56" totalsRowDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{ED7745A0-C586-F841-BD18-42555DC0A56A}" name="2003" dataDxfId="55" totalsRowDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{071664C1-5CCE-A24D-B2D8-DF8774B4843F}" name="2004" dataDxfId="54" totalsRowDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{3AEF6EE2-9CB2-2244-A553-4429A4A02230}" name="2005" dataDxfId="53" totalsRowDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{4B315925-9863-AB41-8C50-251114BB596E}" name="2006" dataDxfId="52" totalsRowDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{0E14ED91-B86D-D443-921C-E45CA21C85F5}" name="2007" dataDxfId="51" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{3A195F7D-7318-9840-B5F0-2E2CC9ED5296}" name="2008" dataDxfId="50" totalsRowDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{137126FE-BD1E-194F-83DA-C5348E583F6E}" name="2009" dataDxfId="49" totalsRowDxfId="17"/>
+    <tableColumn id="32" xr3:uid="{77F48226-F9BD-7446-AB2D-BD4E89BB9BAD}" name="2010" dataDxfId="48" totalsRowDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{F8E7FE98-C91E-884D-9EC9-039B9C9A9E36}" name="2011" dataDxfId="47" totalsRowDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{FA865C78-5EF4-7545-A433-162B29936B0B}" name="2012" dataDxfId="46" totalsRowDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{D2000FF0-CD30-ED42-801A-6CDFEAE5E8BB}" name="2013" dataDxfId="45" totalsRowDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{712968A4-4BAE-6C46-BFC5-70B17F84E201}" name="2014" dataDxfId="44" totalsRowDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{C8F26BF9-73AE-0E4A-86C6-69A4EB62B1E9}" name="2015" dataDxfId="43" totalsRowDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{B89CB494-609D-0043-AB30-46E80BE4AD85}" name="2016" dataDxfId="42" totalsRowDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{BD217C51-AFCD-6143-814C-9229B36FA142}" name="2017" dataDxfId="41" totalsRowDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{523BB350-242B-7B40-ACB0-B15F33D1DD1E}" name="2018" dataDxfId="40" totalsRowDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{9C778654-B9D1-8F4D-BF6F-2EAB148DCC69}" name="2019" dataDxfId="39" totalsRowDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{29EDCEA4-54E5-704D-9DB6-A2AA62267188}" name="2020" dataDxfId="38" totalsRowDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{DBD90139-9385-B447-97DA-262BC364E4E2}" name="2021" dataDxfId="37" totalsRowDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{EC09A6D0-3731-5E46-AF8B-F50CF417791D}" name="2022" dataDxfId="36" totalsRowDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{2D575873-08F8-1548-A7A9-2E7BED99FB88}" name="2023" dataDxfId="35" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B1BE29CC-7CA0-8943-B2A6-348AE2B1F2D0}" name="2024" dataDxfId="34" totalsRowDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="33" xr3:uid="{888D67F7-C240-EA43-96F8-E6F562ADFF33}" name="2025" dataDxfId="32" totalsRowDxfId="1" dataCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="verjaardag" dataDxfId="33" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,24 +1443,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC28EA3-8EA1-A246-A923-60FCCDD4306B}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="7.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="8" customWidth="1"/>
+    <col min="28" max="30" width="7.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -662,521 +1476,4232 @@
       <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="41" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="42">
         <v>27760</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="24">
         <v>1620021</v>
       </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="42">
         <v>32874</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="42">
         <v>45657</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="24">
         <v>1620008</v>
       </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="42">
         <v>34700</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="24">
         <v>1620029</v>
       </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="42">
         <v>35065</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="24">
         <v>1620038</v>
       </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF5" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="42">
         <v>35065</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="42">
         <v>45657</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="24">
         <v>1620040</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z6" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG6" s="36">
+        <v>18017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="42">
         <v>37347</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="24">
         <v>1620059</v>
       </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="G7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF7" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="42">
         <v>37987</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="42">
         <v>45291</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="24">
         <v>1620061</v>
       </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="42">
         <v>38353</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="24">
         <v>1620064</v>
       </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG9" s="36">
+        <v>2958434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="42">
         <v>39539</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="24">
         <v>1620076</v>
       </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG10" s="36">
+        <v>2958200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="42">
         <v>39904</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="24">
         <v>1620078</v>
       </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF11" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG11" s="36">
+        <v>2958295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="42">
         <v>40118</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="42">
         <v>45657</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="24">
         <v>1620079</v>
       </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF12" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="36">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF13" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF14" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1620057</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF15" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1620062</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF17" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S19" s="31"/>
+      <c r="T19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF20" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF21" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U22" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V22" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF22" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X23" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF23" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X24" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB24" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF24" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1620039</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X25" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE25" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF25" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X26" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF26" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="X27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF27" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S28" s="31"/>
+      <c r="T28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE28" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF28" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X29" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y29" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE29" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF29" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" s="31"/>
+      <c r="T30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF30" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="S31" s="31"/>
+      <c r="T31" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF31" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D32" s="42">
         <v>41974</v>
       </c>
-      <c r="F13">
+      <c r="E32" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="24">
         <v>1620085</v>
       </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD32" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE32" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF32" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG32" s="36">
+        <v>2958286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B33" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C33" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D33" s="42">
         <v>42005</v>
       </c>
-      <c r="F14">
+      <c r="E33" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="24">
         <v>1620087</v>
       </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V33" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD33" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE33" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF33" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D34" s="42">
         <v>42461</v>
       </c>
-      <c r="F15">
+      <c r="E34" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="24">
         <v>1620090</v>
       </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W34" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD34" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE34" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF34" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B35" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C35" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D35" s="42">
         <v>43031</v>
       </c>
-      <c r="F16">
+      <c r="E35" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="24">
         <v>1620093</v>
       </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V35" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W35" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X35" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD35" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE35" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF35" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="U36" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="W36" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="X36" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z36" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC36" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD36" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF36" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V37" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W37" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X37" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y37" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA37" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE37" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF37" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U38" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W38" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="X38" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y38" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE38" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF38" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA39" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE39" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF39" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V40" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W40" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB40" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC40" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD40" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE40" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF40" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U41" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z41" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB41" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE41" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF41" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA42" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE42" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF42" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D43" s="42">
         <v>43556</v>
       </c>
-      <c r="F17">
+      <c r="E43" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="24">
         <v>1620098</v>
       </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z43" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC43" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD43" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE43" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF43" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B44" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C44" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D44" s="42">
         <v>43730</v>
       </c>
-      <c r="F18">
+      <c r="E44" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="24">
         <v>1620099</v>
       </c>
-      <c r="G18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF44" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B45" s="45"/>
+      <c r="C45" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D45" s="42">
         <v>43831</v>
       </c>
-      <c r="F19">
+      <c r="E45" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="24">
         <v>1620101</v>
       </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V45" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W45" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC45" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD45" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE45" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF45" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG45" s="36">
+        <v>2958453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B46" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C46" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D46" s="42">
         <v>43831</v>
       </c>
-      <c r="F20">
+      <c r="E46" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="24">
         <v>1620103</v>
       </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC46" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD46" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE46" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF46" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="24">
+        <v>1620102</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V47" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W47" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB47" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC47" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE47" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF47" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG47" s="47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A48" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B48" s="45"/>
+      <c r="C48" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D48" s="42">
         <v>44342</v>
       </c>
-      <c r="F21">
-        <v>1620104</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E48" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="24">
+        <v>1620102</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V48" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W48" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB48" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC48" s="33"/>
+      <c r="AD48" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE48" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF48" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG48" s="36">
+        <v>2958221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A49" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z49" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB49" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC49" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD49" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE49" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF49" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D50" s="42">
         <v>44857</v>
       </c>
-      <c r="F22">
+      <c r="E50" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="24">
         <v>1620105</v>
       </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V50" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W50" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC50" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD50" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE50" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF50" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D51" s="42">
         <v>44861</v>
       </c>
-      <c r="F23">
+      <c r="E51" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="24">
         <v>1620106</v>
       </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V51" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC51" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD51" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE51" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF51" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B52" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C52" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D52" s="42">
         <v>44864</v>
       </c>
-      <c r="F24">
+      <c r="E52" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="24">
         <v>1620107</v>
       </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC52" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD52" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE52" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF52" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A53" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D53" s="42">
         <v>44882</v>
       </c>
-      <c r="F25">
+      <c r="E53" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="24">
         <v>1620108</v>
       </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V53" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W53" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC53" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD53" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE53" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF53" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A54" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B54" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C54" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D54" s="42">
         <v>44896</v>
       </c>
-      <c r="F26">
+      <c r="E54" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="24">
         <v>1620109</v>
       </c>
-      <c r="G26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V54" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W54" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC54" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD54" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE54" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF54" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG54" s="36">
+        <v>2958390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A55" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B55" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C55" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D55" s="42">
         <v>45292</v>
       </c>
-      <c r="F27">
+      <c r="E55" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="24">
         <v>1620110</v>
       </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="G55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="R55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="S55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="T55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z55" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE55" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF55" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG55" s="36">
+        <v>21111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A56" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B56" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C56" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D56" s="42">
         <v>45292</v>
       </c>
-      <c r="F28">
+      <c r="E56" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="24">
         <v>1620111</v>
       </c>
-      <c r="G28" t="s">
-        <v>63</v>
+      <c r="G56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="R56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="S56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="T56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="X56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z56" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD56" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE56" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF56" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG56" s="36">
+        <v>25768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D57" s="42"/>
+      <c r="E57" s="14"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+    </row>
+    <row r="58" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="F58" s="22"/>
+      <c r="R58" s="21">
+        <v>30</v>
+      </c>
+      <c r="T58" s="21">
+        <v>27</v>
+      </c>
+      <c r="U58" s="21">
+        <v>27</v>
+      </c>
+      <c r="V58" s="21">
+        <v>29</v>
+      </c>
+      <c r="W58" s="21">
+        <v>29</v>
+      </c>
+      <c r="X58" s="21">
+        <v>29</v>
+      </c>
+      <c r="Y58" s="21">
+        <v>27</v>
+      </c>
+      <c r="Z58" s="21">
+        <v>29</v>
+      </c>
+      <c r="AA58" s="23">
+        <v>29</v>
+      </c>
+      <c r="AB58" s="21">
+        <v>26</v>
+      </c>
+      <c r="AC58" s="21">
+        <v>29</v>
+      </c>
+      <c r="AD58" s="21">
+        <f>29</f>
+        <v>29</v>
+      </c>
+      <c r="AE58" s="21">
+        <v>26</v>
+      </c>
+      <c r="AF58" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG58" s="37"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
+++ b/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Photo Club Hub/Photo Club Hub/ViewModel/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DEE05-9A51-4445-9709-BE09387C921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFC3BB4-DB00-D74D-88DB-3A1AE0E45707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A7490BB1-5D67-2C4A-8E3D-CB598F42BEF3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{A7490BB1-5D67-2C4A-8E3D-CB598F42BEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,11 +498,11 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,6 +563,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -714,7 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
@@ -770,12 +776,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,24 +795,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,19 +812,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="174" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -839,24 +836,48 @@
   </cellStyles>
   <dxfs count="60">
     <dxf>
-      <numFmt numFmtId="174" formatCode="[$-409]d\-mmm;@"/>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -872,130 +893,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="[$-409]d\-mmm;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
@@ -1005,67 +902,167 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1091,36 +1088,36 @@
     <tableColumn id="1" xr3:uid="{430B1ABE-2437-604E-8995-B60B0FA4F7FF}" name="Voornaam"/>
     <tableColumn id="2" xr3:uid="{017CA9F5-2371-8B4D-A4BB-0CE25ED61526}" name="Tussenvoegsel"/>
     <tableColumn id="3" xr3:uid="{D5A45AEA-E584-6C42-9B0F-23A48CD60FB2}" name="Achternaam"/>
-    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="31" totalsRowDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="59" totalsRowDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{582DEEA2-04C6-8343-8F3E-50F023FC6F21}" name="2000" dataDxfId="58" totalsRowDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{ABBB74CB-F7FF-E24C-A0DF-45FF0DEB45B8}" name="2001" dataDxfId="57" totalsRowDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{DA3A1A5D-A311-E04F-8429-FBE804C89246}" name="2002" dataDxfId="56" totalsRowDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{ED7745A0-C586-F841-BD18-42555DC0A56A}" name="2003" dataDxfId="55" totalsRowDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{071664C1-5CCE-A24D-B2D8-DF8774B4843F}" name="2004" dataDxfId="54" totalsRowDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{3AEF6EE2-9CB2-2244-A553-4429A4A02230}" name="2005" dataDxfId="53" totalsRowDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{4B315925-9863-AB41-8C50-251114BB596E}" name="2006" dataDxfId="52" totalsRowDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{0E14ED91-B86D-D443-921C-E45CA21C85F5}" name="2007" dataDxfId="51" totalsRowDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{3A195F7D-7318-9840-B5F0-2E2CC9ED5296}" name="2008" dataDxfId="50" totalsRowDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{137126FE-BD1E-194F-83DA-C5348E583F6E}" name="2009" dataDxfId="49" totalsRowDxfId="17"/>
-    <tableColumn id="32" xr3:uid="{77F48226-F9BD-7446-AB2D-BD4E89BB9BAD}" name="2010" dataDxfId="48" totalsRowDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{F8E7FE98-C91E-884D-9EC9-039B9C9A9E36}" name="2011" dataDxfId="47" totalsRowDxfId="15"/>
-    <tableColumn id="30" xr3:uid="{FA865C78-5EF4-7545-A433-162B29936B0B}" name="2012" dataDxfId="46" totalsRowDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{D2000FF0-CD30-ED42-801A-6CDFEAE5E8BB}" name="2013" dataDxfId="45" totalsRowDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{712968A4-4BAE-6C46-BFC5-70B17F84E201}" name="2014" dataDxfId="44" totalsRowDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{C8F26BF9-73AE-0E4A-86C6-69A4EB62B1E9}" name="2015" dataDxfId="43" totalsRowDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{B89CB494-609D-0043-AB30-46E80BE4AD85}" name="2016" dataDxfId="42" totalsRowDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{BD217C51-AFCD-6143-814C-9229B36FA142}" name="2017" dataDxfId="41" totalsRowDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{523BB350-242B-7B40-ACB0-B15F33D1DD1E}" name="2018" dataDxfId="40" totalsRowDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{9C778654-B9D1-8F4D-BF6F-2EAB148DCC69}" name="2019" dataDxfId="39" totalsRowDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{29EDCEA4-54E5-704D-9DB6-A2AA62267188}" name="2020" dataDxfId="38" totalsRowDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{DBD90139-9385-B447-97DA-262BC364E4E2}" name="2021" dataDxfId="37" totalsRowDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{EC09A6D0-3731-5E46-AF8B-F50CF417791D}" name="2022" dataDxfId="36" totalsRowDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{2D575873-08F8-1548-A7A9-2E7BED99FB88}" name="2023" dataDxfId="35" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B1BE29CC-7CA0-8943-B2A6-348AE2B1F2D0}" name="2024" dataDxfId="34" totalsRowDxfId="2" dataCellStyle="Good"/>
-    <tableColumn id="33" xr3:uid="{888D67F7-C240-EA43-96F8-E6F562ADFF33}" name="2025" dataDxfId="32" totalsRowDxfId="1" dataCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="verjaardag" dataDxfId="33" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="18" xr3:uid="{582DEEA2-04C6-8343-8F3E-50F023FC6F21}" name="2000" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{ABBB74CB-F7FF-E24C-A0DF-45FF0DEB45B8}" name="2001" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{DA3A1A5D-A311-E04F-8429-FBE804C89246}" name="2002" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{ED7745A0-C586-F841-BD18-42555DC0A56A}" name="2003" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{071664C1-5CCE-A24D-B2D8-DF8774B4843F}" name="2004" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{3AEF6EE2-9CB2-2244-A553-4429A4A02230}" name="2005" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{4B315925-9863-AB41-8C50-251114BB596E}" name="2006" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{0E14ED91-B86D-D443-921C-E45CA21C85F5}" name="2007" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{3A195F7D-7318-9840-B5F0-2E2CC9ED5296}" name="2008" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{137126FE-BD1E-194F-83DA-C5348E583F6E}" name="2009" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="32" xr3:uid="{77F48226-F9BD-7446-AB2D-BD4E89BB9BAD}" name="2010" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{F8E7FE98-C91E-884D-9EC9-039B9C9A9E36}" name="2011" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="30" xr3:uid="{FA865C78-5EF4-7545-A433-162B29936B0B}" name="2012" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="29" xr3:uid="{D2000FF0-CD30-ED42-801A-6CDFEAE5E8BB}" name="2013" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="28" xr3:uid="{712968A4-4BAE-6C46-BFC5-70B17F84E201}" name="2014" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="27" xr3:uid="{C8F26BF9-73AE-0E4A-86C6-69A4EB62B1E9}" name="2015" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{B89CB494-609D-0043-AB30-46E80BE4AD85}" name="2016" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{BD217C51-AFCD-6143-814C-9229B36FA142}" name="2017" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{523BB350-242B-7B40-ACB0-B15F33D1DD1E}" name="2018" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{9C778654-B9D1-8F4D-BF6F-2EAB148DCC69}" name="2019" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{29EDCEA4-54E5-704D-9DB6-A2AA62267188}" name="2020" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{DBD90139-9385-B447-97DA-262BC364E4E2}" name="2021" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{EC09A6D0-3731-5E46-AF8B-F50CF417791D}" name="2022" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{2D575873-08F8-1548-A7A9-2E7BED99FB88}" name="2023" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B1BE29CC-7CA0-8943-B2A6-348AE2B1F2D0}" name="2024" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Good"/>
+    <tableColumn id="33" xr3:uid="{888D67F7-C240-EA43-96F8-E6F562ADFF33}" name="2025" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="verjaardag" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,7 +1443,7 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+      <selection activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1451,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1463,7 +1460,7 @@
     <col min="28" max="30" width="7.6640625" style="1" customWidth="1"/>
     <col min="31" max="31" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -1476,7 +1473,7 @@
       <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1563,22 +1560,22 @@
       <c r="AF1" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="38">
         <v>27760</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F2" s="24">
@@ -1617,13 +1614,13 @@
       <c r="Q2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U2" s="5" t="s">
@@ -1641,7 +1638,7 @@
       <c r="Y2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA2" s="9" t="s">
@@ -1653,28 +1650,28 @@
       <c r="AC2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AD2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF2" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="38">
         <v>32874</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="38">
         <v>45657</v>
       </c>
       <c r="F3" s="24">
@@ -1713,13 +1710,13 @@
       <c r="Q3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -1737,7 +1734,7 @@
       <c r="Y3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA3" s="9" t="s">
@@ -1755,24 +1752,24 @@
       <c r="AE3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AF3" s="39" t="s">
+      <c r="AF3" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="38">
         <v>34700</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F4" s="24">
@@ -1817,7 +1814,7 @@
       <c r="S4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U4" s="5" t="s">
@@ -1835,7 +1832,7 @@
       <c r="Y4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA4" s="9" t="s">
@@ -1847,28 +1844,28 @@
       <c r="AC4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AD4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="38">
         <v>35065</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F5" s="24">
@@ -1907,13 +1904,13 @@
       <c r="Q5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U5" s="5" t="s">
@@ -1931,7 +1928,7 @@
       <c r="Y5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA5" s="9" t="s">
@@ -1943,28 +1940,28 @@
       <c r="AC5" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD5" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF5" s="38" t="s">
+      <c r="AD5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF5" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="38">
         <v>35065</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="38">
         <v>45657</v>
       </c>
       <c r="F6" s="24">
@@ -2003,13 +2000,13 @@
       <c r="Q6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U6" s="5" t="s">
@@ -2027,7 +2024,7 @@
       <c r="Y6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA6" s="9" t="s">
@@ -2039,31 +2036,31 @@
       <c r="AC6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AD6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AF6" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG6" s="36">
+      <c r="AF6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG6" s="32">
         <v>18017</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="38">
         <v>37347</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F7" s="24">
@@ -2102,13 +2099,13 @@
       <c r="Q7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T7" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U7" s="5" t="s">
@@ -2144,31 +2141,31 @@
       <c r="AE7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AF7" s="38" t="s">
+      <c r="AF7" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="38">
         <v>37987</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="38">
         <v>45291</v>
       </c>
       <c r="F8" s="24">
         <v>1620061</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="5" t="s">
         <v>141</v>
       </c>
@@ -2190,13 +2187,13 @@
       <c r="Q8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T8" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U8" s="5" t="s">
@@ -2214,7 +2211,7 @@
       <c r="Y8" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA8" s="9" t="s">
@@ -2226,38 +2223,38 @@
       <c r="AC8" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD8" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE8" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF8" s="39" t="s">
+      <c r="AD8" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="38">
         <v>38353</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F9" s="24">
         <v>1620064</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="5" t="s">
         <v>141</v>
       </c>
@@ -2282,7 +2279,7 @@
       <c r="S9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="T9" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -2300,7 +2297,7 @@
       <c r="Y9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z9" s="32" t="s">
+      <c r="Z9" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA9" s="9" t="s">
@@ -2312,46 +2309,46 @@
       <c r="AC9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD9" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE9" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG9" s="36">
+      <c r="AD9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG9" s="32">
         <v>2958434</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="38">
         <v>39539</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F10" s="24">
         <v>1620076</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="5" t="s">
         <v>141</v>
       </c>
@@ -2361,13 +2358,13 @@
       <c r="Q10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="T10" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U10" s="5" t="s">
@@ -2385,7 +2382,7 @@
       <c r="Y10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z10" s="32" t="s">
+      <c r="Z10" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA10" s="9" t="s">
@@ -2397,58 +2394,58 @@
       <c r="AC10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD10" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE10" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF10" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG10" s="36">
+      <c r="AD10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG10" s="32">
         <v>2958200</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="38">
         <v>39904</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F11" s="24">
         <v>1620078</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="5" t="s">
         <v>141</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U11" s="5" t="s">
@@ -2466,7 +2463,7 @@
       <c r="Y11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA11" s="9" t="s">
@@ -2478,58 +2475,58 @@
       <c r="AC11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD11" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE11" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF11" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG11" s="36">
+      <c r="AD11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF11" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG11" s="32">
         <v>2958295</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <v>40118</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="38">
         <v>45657</v>
       </c>
       <c r="F12" s="24">
         <v>1620079</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="33" t="s">
+      <c r="T12" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U12" s="5" t="s">
@@ -2547,7 +2544,7 @@
       <c r="Y12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA12" s="9" t="s">
@@ -2559,16 +2556,16 @@
       <c r="AC12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD12" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE12" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF12" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG12" s="36">
+      <c r="AD12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="32">
         <v>20006</v>
       </c>
     </row>
@@ -2580,33 +2577,33 @@
       <c r="C13" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32" t="s">
+      <c r="D13" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="33" t="s">
+      <c r="T13" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U13" s="5" t="s">
@@ -2618,25 +2615,25 @@
       <c r="W13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X13" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y13" s="32" t="s">
+      <c r="X13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Z13" s="18" t="s">
         <v>63</v>
       </c>
       <c r="AA13" s="13"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF13" s="39" t="s">
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF13" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2648,33 +2645,33 @@
       <c r="C14" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="32" t="s">
+      <c r="D14" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="T14" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U14" s="5" t="s">
@@ -2686,63 +2683,63 @@
       <c r="W14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X14" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z14" s="34" t="s">
+      <c r="X14" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AA14" s="13"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF14" s="39" t="s">
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF14" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="D15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="44">
         <v>1620057</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="4" t="s">
         <v>130</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U15" s="5" t="s">
@@ -2754,7 +2751,7 @@
       <c r="W15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X15" s="32" t="s">
+      <c r="X15" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y15" s="5" t="s">
@@ -2775,41 +2772,41 @@
       <c r="AD15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AE15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF15" s="39" t="s">
+      <c r="AE15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF15" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="40">
+      <c r="D16" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="36">
         <v>1620062</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="4" t="s">
         <v>130</v>
       </c>
@@ -2828,7 +2825,7 @@
       <c r="W16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y16" s="5" t="s">
@@ -2849,13 +2846,13 @@
       <c r="AD16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AE16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF16" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG16" s="47" t="s">
+      <c r="AE16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="43" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2867,33 +2864,33 @@
       <c r="C17" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32" t="s">
+      <c r="D17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U17" s="5" t="s">
@@ -2905,21 +2902,21 @@
       <c r="W17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y17" s="30"/>
+      <c r="X17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" s="10"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="13"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF17" s="39" t="s">
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF17" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2931,33 +2928,33 @@
       <c r="C18" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32" t="s">
+      <c r="D18" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="31" t="s">
         <v>130</v>
       </c>
       <c r="U18" s="5" t="s">
@@ -2969,7 +2966,7 @@
       <c r="W18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X18" s="32" t="s">
+      <c r="X18" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y18" s="5" t="s">
@@ -2981,7 +2978,7 @@
       <c r="AA18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AB18" s="34" t="s">
+      <c r="AB18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AC18" s="10"/>
@@ -2991,7 +2988,7 @@
       <c r="AE18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AF18" s="39" t="s">
+      <c r="AF18" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3005,57 +3002,57 @@
       <c r="C19" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="S19" s="31"/>
-      <c r="T19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V19" s="30" t="s">
+      <c r="D19" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="10" t="s">
         <v>63</v>
       </c>
       <c r="W19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="X19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y19" s="30"/>
+      <c r="X19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="10"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="13"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE19" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="39" t="s">
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF19" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3067,27 +3064,27 @@
       <c r="C20" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32" t="s">
+      <c r="D20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S20" s="5" t="s">
@@ -3105,21 +3102,21 @@
       <c r="W20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="X20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y20" s="30"/>
+      <c r="X20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="10"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="13"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF20" s="39" t="s">
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF20" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3131,27 +3128,27 @@
       <c r="C21" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32" t="s">
+      <c r="D21" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S21" s="5" t="s">
@@ -3169,7 +3166,7 @@
       <c r="W21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X21" s="32" t="s">
+      <c r="X21" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y21" s="5" t="s">
@@ -3179,15 +3176,15 @@
         <v>63</v>
       </c>
       <c r="AA21" s="13"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="34" t="s">
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AE21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AF21" s="39" t="s">
+      <c r="AF21" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3199,27 +3196,27 @@
       <c r="C22" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32" t="s">
+      <c r="D22" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S22" s="5" t="s">
@@ -3228,32 +3225,32 @@
       <c r="T22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="U22" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V22" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="X22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y22" s="30"/>
+      <c r="U22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="10"/>
       <c r="Z22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF22" s="39" t="s">
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF22" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3265,27 +3262,27 @@
       <c r="C23" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="32" t="s">
+      <c r="D23" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S23" s="5" t="s">
@@ -3303,7 +3300,7 @@
       <c r="W23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X23" s="32" t="s">
+      <c r="X23" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y23" s="5" t="s">
@@ -3315,49 +3312,49 @@
       <c r="AA23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AB23" s="34" t="s">
+      <c r="AB23" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AC23" s="16"/>
-      <c r="AD23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF23" s="39" t="s">
+      <c r="AD23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF23" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S24" s="5" t="s">
@@ -3375,7 +3372,7 @@
       <c r="W24" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X24" s="32" t="s">
+      <c r="X24" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y24" s="5" t="s">
@@ -3387,51 +3384,51 @@
       <c r="AA24" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AB24" s="34" t="s">
+      <c r="AB24" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AC24" s="16"/>
-      <c r="AD24" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE24" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF24" s="39" t="s">
+      <c r="AD24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF24" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="24">
         <v>1620039</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S25" s="5" t="s">
@@ -3449,7 +3446,7 @@
       <c r="W25" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X25" s="32" t="s">
+      <c r="X25" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y25" s="5" t="s">
@@ -3470,10 +3467,10 @@
       <c r="AD25" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AE25" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF25" s="39" t="s">
+      <c r="AE25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF25" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3494,18 +3491,18 @@
       <c r="F26" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="32" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S26" s="5" t="s">
@@ -3523,25 +3520,25 @@
       <c r="W26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X26" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y26" s="34" t="s">
+      <c r="X26" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="11" t="s">
         <v>63</v>
       </c>
       <c r="Z26" s="16" t="s">
         <v>63</v>
       </c>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF26" s="39" t="s">
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF26" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3553,27 +3550,27 @@
       <c r="C27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32" t="s">
+      <c r="D27" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S27" s="5" t="s">
@@ -3588,26 +3585,26 @@
       <c r="V27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="W27" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="X27" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y27" s="30"/>
+      <c r="W27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y27" s="10"/>
       <c r="Z27" s="16" t="s">
         <v>63</v>
       </c>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE27" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF27" s="39" t="s">
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF27" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3619,30 +3616,30 @@
       <c r="C28" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="S28" s="31"/>
+      <c r="D28" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="10" t="s">
         <v>63</v>
       </c>
@@ -3663,15 +3660,15 @@
         <v>63</v>
       </c>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE28" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF28" s="39" t="s">
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF28" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3683,27 +3680,27 @@
       <c r="C29" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32" t="s">
+      <c r="D29" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="30" t="s">
         <v>130</v>
       </c>
       <c r="S29" s="5" t="s">
@@ -3721,25 +3718,25 @@
       <c r="W29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X29" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y29" s="34" t="s">
+      <c r="X29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y29" s="11" t="s">
         <v>63</v>
       </c>
       <c r="Z29" s="16" t="s">
         <v>63</v>
       </c>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE29" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF29" s="39" t="s">
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF29" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3753,30 +3750,30 @@
       <c r="C30" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="S30" s="31"/>
+      <c r="D30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="10" t="s">
         <v>63</v>
       </c>
@@ -3789,23 +3786,23 @@
       <c r="W30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y30" s="30"/>
+      <c r="X30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y30" s="10"/>
       <c r="Z30" s="16" t="s">
         <v>63</v>
       </c>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF30" s="39" t="s">
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF30" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3819,40 +3816,40 @@
       <c r="C31" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="S31" s="31"/>
-      <c r="T31" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="W31" s="34" t="s">
+      <c r="D31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="11" t="s">
         <v>63</v>
       </c>
       <c r="X31" s="11" t="s">
@@ -3863,55 +3860,55 @@
         <v>63</v>
       </c>
       <c r="AA31" s="13"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE31" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF31" s="39" t="s">
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF31" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="38">
         <v>41974</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F32" s="24">
         <v>1620085</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="V32" s="32" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="V32" s="30" t="s">
         <v>130</v>
       </c>
       <c r="W32" s="5" t="s">
@@ -3935,56 +3932,56 @@
       <c r="AC32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF32" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG32" s="36">
+      <c r="AD32" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE32" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF32" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG32" s="32">
         <v>2958286</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="38">
         <v>42005</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F33" s="24">
         <v>1620087</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V33" s="32" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V33" s="30" t="s">
         <v>130</v>
       </c>
       <c r="W33" s="5" t="s">
@@ -4008,54 +4005,54 @@
       <c r="AC33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD33" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE33" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF33" s="38" t="s">
+      <c r="AD33" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE33" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF33" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="38">
         <v>42461</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F34" s="24">
         <v>1620090</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W34" s="32" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W34" s="30" t="s">
         <v>130</v>
       </c>
       <c r="X34" s="5" t="s">
@@ -4076,59 +4073,59 @@
       <c r="AC34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD34" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE34" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF34" s="38" t="s">
+      <c r="AD34" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE34" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF34" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="38">
         <v>43031</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F35" s="24">
         <v>1620093</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X35" s="32" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X35" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y35" s="5" t="s">
@@ -4146,30 +4143,30 @@
       <c r="AC35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD35" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE35" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF35" s="38" t="s">
+      <c r="AD35" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE35" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF35" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="42" t="s">
+      <c r="D36" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F36" s="24" t="s">
@@ -4179,34 +4176,34 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="32" t="s">
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="30" t="s">
         <v>130</v>
       </c>
       <c r="U36" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="V36" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="W36" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="X36" s="32" t="s">
+      <c r="V36" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="W36" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="X36" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Y36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA36" s="20" t="s">
@@ -4215,65 +4212,65 @@
       <c r="AB36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AC36" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD36" s="34" t="s">
+      <c r="AC36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AE36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AF36" s="39" t="s">
+      <c r="AF36" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="42" t="s">
+      <c r="D37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X37" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y37" s="32" t="s">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X37" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y37" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Z37" s="5" t="s">
@@ -4286,13 +4283,13 @@
         <v>63</v>
       </c>
       <c r="AC37" s="16"/>
-      <c r="AD37" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE37" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF37" s="39" t="s">
+      <c r="AD37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF37" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4304,44 +4301,44 @@
       <c r="C38" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W38" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="X38" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y38" s="32" t="s">
+      <c r="D38" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W38" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="X38" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y38" s="30" t="s">
         <v>130</v>
       </c>
       <c r="Z38" s="16" t="s">
@@ -4354,13 +4351,13 @@
         <v>63</v>
       </c>
       <c r="AC38" s="16"/>
-      <c r="AD38" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE38" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF38" s="39" t="s">
+      <c r="AD38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF38" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4372,28 +4369,28 @@
       <c r="C39" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="D39" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
       <c r="T39" s="10" t="s">
         <v>63</v>
       </c>
@@ -4422,119 +4419,117 @@
         <v>63</v>
       </c>
       <c r="AC39" s="16"/>
-      <c r="AD39" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE39" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF39" s="39" t="s">
+      <c r="AD39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF39" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="42" t="s">
+      <c r="D40" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U40" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V40" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W40" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="32" t="s">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z40" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AB40" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC40" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD40" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE40" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF40" s="39" t="s">
+      <c r="AB40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF40" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="42" t="s">
+      <c r="D41" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U41" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V41" s="32" t="s">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" s="30" t="s">
         <v>130</v>
       </c>
       <c r="W41" s="5" t="s">
@@ -4546,23 +4541,23 @@
       <c r="Y41" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="Z41" s="32" t="s">
+      <c r="Z41" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AB41" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE41" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF41" s="39" t="s">
+      <c r="AB41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF41" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4576,43 +4571,43 @@
       <c r="C42" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U42" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V42" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="32" t="s">
+      <c r="D42" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA42" s="19" t="s">
@@ -4625,58 +4620,58 @@
       <c r="AD42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AE42" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF42" s="39" t="s">
+      <c r="AE42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF42" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="38">
         <v>43556</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F43" s="24">
         <v>1620098</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V43" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W43" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X43" s="30"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X43" s="10"/>
       <c r="Y43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Z43" s="32" t="s">
+      <c r="Z43" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA43" s="9" t="s">
@@ -4685,66 +4680,66 @@
       <c r="AB43" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AC43" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD43" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE43" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF43" s="38" t="s">
+      <c r="AC43" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD43" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE43" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF43" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="38">
         <v>43730</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F44" s="24">
         <v>1620099</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V44" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W44" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z44" s="32" t="s">
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z44" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AA44" s="9" t="s">
@@ -4753,61 +4748,61 @@
       <c r="AB44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AC44" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD44" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE44" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF44" s="38" t="s">
+      <c r="AC44" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD44" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE44" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF44" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="38">
         <v>43831</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F45" s="24">
         <v>1620101</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V45" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W45" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
       <c r="Z45" s="12" t="s">
         <v>63</v>
       </c>
@@ -4817,66 +4812,66 @@
       <c r="AB45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AC45" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD45" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE45" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF45" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG45" s="36">
+      <c r="AC45" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD45" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE45" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF45" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG45" s="32">
         <v>2958453</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="38">
         <v>43831</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F46" s="24">
         <v>1620103</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
       <c r="Z46" s="12" t="s">
         <v>63</v>
       </c>
@@ -4886,57 +4881,57 @@
       <c r="AB46" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AC46" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD46" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE46" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF46" s="38" t="s">
+      <c r="AC46" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD46" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE46" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF46" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="24">
         <v>1620102</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V47" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W47" s="30" t="s">
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W47" s="10" t="s">
         <v>63</v>
       </c>
       <c r="X47" s="12" t="s">
@@ -4951,102 +4946,102 @@
       <c r="AA47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AB47" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC47" s="32" t="s">
+      <c r="AB47" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC47" s="30" t="s">
         <v>130</v>
       </c>
       <c r="AD47" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AE47" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF47" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG47" s="47" t="s">
+      <c r="AE47" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF47" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG47" s="43" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="38">
         <v>44342</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F48" s="24">
         <v>1620102</v>
       </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V48" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W48" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
       <c r="Z48" s="16" t="s">
         <v>63</v>
       </c>
       <c r="AA48" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AB48" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE48" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF48" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG48" s="36">
+      <c r="AB48" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE48" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF48" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG48" s="32">
         <v>2958221</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="42" t="s">
+      <c r="D49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F49" s="24" t="s">
@@ -5066,17 +5061,17 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
-      <c r="U49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30" t="s">
+      <c r="U49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10" t="s">
         <v>63</v>
       </c>
       <c r="Z49" s="17" t="s">
@@ -5085,63 +5080,63 @@
       <c r="AA49" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AB49" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC49" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD49" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE49" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF49" s="39" t="s">
+      <c r="AB49" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC49" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD49" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE49" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF49" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="38">
         <v>44857</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F50" s="24">
         <v>1620105</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V50" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W50" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X50" s="30"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="17" t="s">
         <v>63</v>
@@ -5150,61 +5145,61 @@
       <c r="AB50" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC50" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD50" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE50" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF50" s="38" t="s">
+      <c r="AC50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF50" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="42">
+      <c r="D51" s="38">
         <v>44861</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F51" s="24">
         <v>1620106</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V51" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W51" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
       <c r="Z51" s="17" t="s">
         <v>63</v>
       </c>
@@ -5212,51 +5207,51 @@
       <c r="AB51" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC51" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD51" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE51" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF51" s="38" t="s">
+      <c r="AC51" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD51" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE51" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF51" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="38">
         <v>44864</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F52" s="24">
         <v>1620107</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10" t="s">
         <v>63</v>
@@ -5273,351 +5268,351 @@
         <v>63</v>
       </c>
       <c r="AA52" s="13"/>
-      <c r="AB52" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC52" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD52" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE52" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF52" s="38" t="s">
+      <c r="AB52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC52" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD52" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE52" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF52" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D53" s="38">
         <v>44882</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F53" s="24">
         <v>1620108</v>
       </c>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
       <c r="Z53" s="17" t="s">
         <v>63</v>
       </c>
       <c r="AA53" s="13"/>
-      <c r="AB53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC53" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD53" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE53" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF53" s="38" t="s">
+      <c r="AB53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC53" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD53" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE53" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF53" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="38">
         <v>44896</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F54" s="24">
         <v>1620109</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V54" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W54" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
       <c r="Z54" s="17" t="s">
         <v>63</v>
       </c>
       <c r="AA54" s="13"/>
-      <c r="AB54" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC54" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD54" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE54" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF54" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG54" s="36">
+      <c r="AB54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC54" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD54" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE54" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF54" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG54" s="32">
         <v>2958390</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="38">
         <v>45292</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F55" s="24">
         <v>1620110</v>
       </c>
-      <c r="G55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="R55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="T55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y55" s="30" t="s">
+      <c r="G55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y55" s="10" t="s">
         <v>63</v>
       </c>
       <c r="Z55" s="17" t="s">
         <v>63</v>
       </c>
       <c r="AA55" s="13"/>
-      <c r="AB55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE55" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF55" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG55" s="36">
+      <c r="AB55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE55" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF55" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG55" s="32">
         <v>21111</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="38">
         <v>45292</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F56" s="24">
         <v>1620111</v>
       </c>
-      <c r="G56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="N56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="R56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="T56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="W56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="X56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y56" s="30" t="s">
+      <c r="G56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y56" s="10" t="s">
         <v>63</v>
       </c>
       <c r="Z56" s="17" t="s">
         <v>63</v>
       </c>
       <c r="AA56" s="13"/>
-      <c r="AB56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD56" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE56" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF56" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG56" s="36">
+      <c r="AB56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE56" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF56" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG56" s="32">
         <v>25768</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D57" s="42"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="14"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5648,7 +5643,7 @@
       <c r="A58" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="44"/>
+      <c r="D58" s="40"/>
       <c r="F58" s="22"/>
       <c r="R58" s="21">
         <v>30</v>
@@ -5693,7 +5688,7 @@
       <c r="AF58" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AG58" s="37"/>
+      <c r="AG58" s="33"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">

--- a/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
+++ b/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Photo Club Hub/Photo Club Hub/ViewModel/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFC3BB4-DB00-D74D-88DB-3A1AE0E45707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D6E49-18CC-974C-979E-76C2AEE5B918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{A7490BB1-5D67-2C4A-8E3D-CB598F42BEF3}"/>
   </bookViews>
@@ -839,45 +839,21 @@
       <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -893,6 +869,122 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
@@ -902,148 +994,64 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1051,14 +1059,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1088,36 +1088,36 @@
     <tableColumn id="1" xr3:uid="{430B1ABE-2437-604E-8995-B60B0FA4F7FF}" name="Voornaam"/>
     <tableColumn id="2" xr3:uid="{017CA9F5-2371-8B4D-A4BB-0CE25ED61526}" name="Tussenvoegsel"/>
     <tableColumn id="3" xr3:uid="{D5A45AEA-E584-6C42-9B0F-23A48CD60FB2}" name="Achternaam"/>
-    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="18" xr3:uid="{582DEEA2-04C6-8343-8F3E-50F023FC6F21}" name="2000" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{ABBB74CB-F7FF-E24C-A0DF-45FF0DEB45B8}" name="2001" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{DA3A1A5D-A311-E04F-8429-FBE804C89246}" name="2002" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{ED7745A0-C586-F841-BD18-42555DC0A56A}" name="2003" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{071664C1-5CCE-A24D-B2D8-DF8774B4843F}" name="2004" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{3AEF6EE2-9CB2-2244-A553-4429A4A02230}" name="2005" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{4B315925-9863-AB41-8C50-251114BB596E}" name="2006" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{0E14ED91-B86D-D443-921C-E45CA21C85F5}" name="2007" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{3A195F7D-7318-9840-B5F0-2E2CC9ED5296}" name="2008" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{137126FE-BD1E-194F-83DA-C5348E583F6E}" name="2009" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="32" xr3:uid="{77F48226-F9BD-7446-AB2D-BD4E89BB9BAD}" name="2010" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{F8E7FE98-C91E-884D-9EC9-039B9C9A9E36}" name="2011" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{FA865C78-5EF4-7545-A433-162B29936B0B}" name="2012" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="29" xr3:uid="{D2000FF0-CD30-ED42-801A-6CDFEAE5E8BB}" name="2013" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{712968A4-4BAE-6C46-BFC5-70B17F84E201}" name="2014" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{C8F26BF9-73AE-0E4A-86C6-69A4EB62B1E9}" name="2015" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="26" xr3:uid="{B89CB494-609D-0043-AB30-46E80BE4AD85}" name="2016" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{BD217C51-AFCD-6143-814C-9229B36FA142}" name="2017" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{523BB350-242B-7B40-ACB0-B15F33D1DD1E}" name="2018" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{9C778654-B9D1-8F4D-BF6F-2EAB148DCC69}" name="2019" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{29EDCEA4-54E5-704D-9DB6-A2AA62267188}" name="2020" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{DBD90139-9385-B447-97DA-262BC364E4E2}" name="2021" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{EC09A6D0-3731-5E46-AF8B-F50CF417791D}" name="2022" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{2D575873-08F8-1548-A7A9-2E7BED99FB88}" name="2023" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B1BE29CC-7CA0-8943-B2A6-348AE2B1F2D0}" name="2024" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Good"/>
-    <tableColumn id="33" xr3:uid="{888D67F7-C240-EA43-96F8-E6F562ADFF33}" name="2025" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="verjaardag" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="59" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="58" totalsRowDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="57" totalsRowDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{582DEEA2-04C6-8343-8F3E-50F023FC6F21}" name="2000" dataDxfId="56" totalsRowDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{ABBB74CB-F7FF-E24C-A0DF-45FF0DEB45B8}" name="2001" dataDxfId="55" totalsRowDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{DA3A1A5D-A311-E04F-8429-FBE804C89246}" name="2002" dataDxfId="54" totalsRowDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{ED7745A0-C586-F841-BD18-42555DC0A56A}" name="2003" dataDxfId="53" totalsRowDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{071664C1-5CCE-A24D-B2D8-DF8774B4843F}" name="2004" dataDxfId="52" totalsRowDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{3AEF6EE2-9CB2-2244-A553-4429A4A02230}" name="2005" dataDxfId="51" totalsRowDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{4B315925-9863-AB41-8C50-251114BB596E}" name="2006" dataDxfId="50" totalsRowDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{0E14ED91-B86D-D443-921C-E45CA21C85F5}" name="2007" dataDxfId="49" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{3A195F7D-7318-9840-B5F0-2E2CC9ED5296}" name="2008" dataDxfId="48" totalsRowDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{137126FE-BD1E-194F-83DA-C5348E583F6E}" name="2009" dataDxfId="47" totalsRowDxfId="17"/>
+    <tableColumn id="32" xr3:uid="{77F48226-F9BD-7446-AB2D-BD4E89BB9BAD}" name="2010" dataDxfId="46" totalsRowDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{F8E7FE98-C91E-884D-9EC9-039B9C9A9E36}" name="2011" dataDxfId="45" totalsRowDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{FA865C78-5EF4-7545-A433-162B29936B0B}" name="2012" dataDxfId="44" totalsRowDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{D2000FF0-CD30-ED42-801A-6CDFEAE5E8BB}" name="2013" dataDxfId="43" totalsRowDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{712968A4-4BAE-6C46-BFC5-70B17F84E201}" name="2014" dataDxfId="42" totalsRowDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{C8F26BF9-73AE-0E4A-86C6-69A4EB62B1E9}" name="2015" dataDxfId="41" totalsRowDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{B89CB494-609D-0043-AB30-46E80BE4AD85}" name="2016" dataDxfId="40" totalsRowDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{BD217C51-AFCD-6143-814C-9229B36FA142}" name="2017" dataDxfId="39" totalsRowDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{523BB350-242B-7B40-ACB0-B15F33D1DD1E}" name="2018" dataDxfId="38" totalsRowDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{9C778654-B9D1-8F4D-BF6F-2EAB148DCC69}" name="2019" dataDxfId="37" totalsRowDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{29EDCEA4-54E5-704D-9DB6-A2AA62267188}" name="2020" dataDxfId="36" totalsRowDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{DBD90139-9385-B447-97DA-262BC364E4E2}" name="2021" dataDxfId="35" totalsRowDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{EC09A6D0-3731-5E46-AF8B-F50CF417791D}" name="2022" dataDxfId="34" totalsRowDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{2D575873-08F8-1548-A7A9-2E7BED99FB88}" name="2023" dataDxfId="33" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B1BE29CC-7CA0-8943-B2A6-348AE2B1F2D0}" name="2024" dataDxfId="32" totalsRowDxfId="2" dataCellStyle="Good"/>
+    <tableColumn id="33" xr3:uid="{888D67F7-C240-EA43-96F8-E6F562ADFF33}" name="2025" dataDxfId="31" totalsRowDxfId="1" dataCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="verjaardag" dataDxfId="30" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AD49" sqref="AD49"/>
+      <selection activeCell="AG51" sqref="AG51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1962,7 +1962,7 @@
         <v>35065</v>
       </c>
       <c r="E6" s="38">
-        <v>45657</v>
+        <v>45747</v>
       </c>
       <c r="F6" s="24">
         <v>1620040</v>
@@ -5218,6 +5218,9 @@
       </c>
       <c r="AF51" s="34" t="s">
         <v>130</v>
+      </c>
+      <c r="AG51" s="32">
+        <v>2958259</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">

--- a/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
+++ b/Photo Club Hub/ViewModel/Lists/fgDeGenderLeden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Photo Club Hub/Photo Club Hub/ViewModel/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D6E49-18CC-974C-979E-76C2AEE5B918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B5767-ACEB-254F-874E-3AAC95F97D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{A7490BB1-5D67-2C4A-8E3D-CB598F42BEF3}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <t>Achternaam</t>
   </si>
   <si>
-    <t>lid vanaf</t>
-  </si>
-  <si>
-    <t>lid tot</t>
-  </si>
-  <si>
     <t>Bondsnummer</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>2011</t>
   </si>
   <si>
-    <t>verjaardag</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
     <t>??</t>
   </si>
   <si>
-    <t>Michael Frenkiel was in 2015 lid, 2016 niet, maar 2019 in ieder geval weer lid.</t>
-  </si>
-  <si>
     <t>Veen ✝</t>
   </si>
   <si>
@@ -479,16 +467,28 @@
     <t>Michaël</t>
   </si>
   <si>
-    <t>23+</t>
-  </si>
-  <si>
-    <t>momenteel  lid</t>
-  </si>
-  <si>
     <t>OVERLEDEN</t>
   </si>
   <si>
     <t>Gesna is kennelijk rond 2018 getrouwd en is van achternaam veranderd: Leenaars &gt; Heesakkers en Leenaars-Heesakkers.</t>
+  </si>
+  <si>
+    <t>nog steeds lid</t>
+  </si>
+  <si>
+    <t>Lid vanaf</t>
+  </si>
+  <si>
+    <t>Lid tot</t>
+  </si>
+  <si>
+    <t>Verjaardag</t>
+  </si>
+  <si>
+    <t>Michaël Frenkiel was in 2015 lid, 2016 niet, maar 2019 in ieder geval weer lid.</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
@@ -776,11 +776,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -802,7 +797,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,13 +813,28 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1088,8 +1097,8 @@
     <tableColumn id="1" xr3:uid="{430B1ABE-2437-604E-8995-B60B0FA4F7FF}" name="Voornaam"/>
     <tableColumn id="2" xr3:uid="{017CA9F5-2371-8B4D-A4BB-0CE25ED61526}" name="Tussenvoegsel"/>
     <tableColumn id="3" xr3:uid="{D5A45AEA-E584-6C42-9B0F-23A48CD60FB2}" name="Achternaam"/>
-    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="lid vanaf" dataDxfId="59" totalsRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="lid tot" dataDxfId="58" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{5FB455B7-3D8D-D346-97D0-061A2368A1AB}" name="Lid vanaf" dataDxfId="59" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{B91DA326-85FE-A54E-B277-09D6F02C5572}" name="Lid tot" dataDxfId="58" totalsRowDxfId="28"/>
     <tableColumn id="8" xr3:uid="{599E4847-1FD4-494E-BC0E-94DDA73E8308}" name="Bondsnummer" dataDxfId="57" totalsRowDxfId="27"/>
     <tableColumn id="18" xr3:uid="{582DEEA2-04C6-8343-8F3E-50F023FC6F21}" name="2000" dataDxfId="56" totalsRowDxfId="26"/>
     <tableColumn id="17" xr3:uid="{ABBB74CB-F7FF-E24C-A0DF-45FF0DEB45B8}" name="2001" dataDxfId="55" totalsRowDxfId="25"/>
@@ -1117,7 +1126,7 @@
     <tableColumn id="19" xr3:uid="{2D575873-08F8-1548-A7A9-2E7BED99FB88}" name="2023" dataDxfId="33" totalsRowDxfId="3"/>
     <tableColumn id="7" xr3:uid="{B1BE29CC-7CA0-8943-B2A6-348AE2B1F2D0}" name="2024" dataDxfId="32" totalsRowDxfId="2" dataCellStyle="Good"/>
     <tableColumn id="33" xr3:uid="{888D67F7-C240-EA43-96F8-E6F562ADFF33}" name="2025" dataDxfId="31" totalsRowDxfId="1" dataCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="verjaardag" dataDxfId="30" totalsRowDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{EFA24FFA-6B69-F94F-9ED3-CCE885D6124B}" name="Verjaardag" dataDxfId="30" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1440,10 +1449,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC28EA3-8EA1-A246-A923-60FCCDD4306B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AG51" sqref="AG51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ43" sqref="AJ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1464,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1460,7 +1473,7 @@
     <col min="28" max="30" width="7.6640625" style="1" customWidth="1"/>
     <col min="31" max="31" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -1473,693 +1486,693 @@
       <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>81</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="32" t="s">
-        <v>76</v>
+      <c r="AG1" s="29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="34">
         <v>27760</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="24">
+      <c r="E2" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="21">
         <v>1620021</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="34">
         <v>32874</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="34">
         <v>45657</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>1620008</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF3" s="35" t="s">
-        <v>63</v>
+        <v>127</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="34">
         <v>34700</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="E4" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="21">
         <v>1620029</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z4" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD4" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE4" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF4" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="34">
         <v>35065</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="E5" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="21">
         <v>1620038</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z5" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="34">
         <v>35065</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="34">
         <v>45747</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>1620040</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z6" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD6" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF6" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG6" s="32">
+        <v>127</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG6" s="29">
         <v>18017</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="34">
         <v>37347</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="E7" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="21">
         <v>1620059</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF7" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AF7" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>37987</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="34">
         <v>45291</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <v>1620061</v>
       </c>
       <c r="G8" s="10"/>
@@ -2167,87 +2180,87 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD8" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF8" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="34">
         <v>38353</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="E9" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="21">
         <v>1620064</v>
       </c>
       <c r="G9" s="10"/>
@@ -2256,89 +2269,89 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z9" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD9" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE9" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF9" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG9" s="32">
+        <v>127</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF9" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG9" s="29">
         <v>2958434</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="34">
         <v>39539</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="E10" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="21">
         <v>1620076</v>
       </c>
       <c r="G10" s="10"/>
@@ -2350,78 +2363,78 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z10" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD10" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE10" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF10" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG10" s="32">
+        <v>127</v>
+      </c>
+      <c r="AD10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG10" s="29">
         <v>2958200</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="34">
         <v>39904</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="E11" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="21">
         <v>1620078</v>
       </c>
       <c r="G11" s="10"/>
@@ -2434,75 +2447,75 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z11" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF11" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG11" s="32">
+        <v>127</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE11" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF11" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG11" s="29">
         <v>2958295</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="34">
         <v>40118</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="34">
         <v>45657</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>1620079</v>
       </c>
       <c r="G12" s="10"/>
@@ -2515,76 +2528,76 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG12" s="32">
+        <v>127</v>
+      </c>
+      <c r="AD12" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE12" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG12" s="29">
         <v>20006</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>93</v>
+      <c r="A13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2597,62 +2610,62 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="30" t="s">
-        <v>130</v>
+      <c r="R13" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X13" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y13" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X13" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA13" s="13"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF13" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF13" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>93</v>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2665,61 +2678,61 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="30" t="s">
-        <v>130</v>
+      <c r="R14" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X14" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA14" s="13"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF14" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF14" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="A15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="44">
+      <c r="D15" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="39">
         <v>1620057</v>
       </c>
       <c r="G15" s="3"/>
@@ -2734,66 +2747,66 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="T15" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X15" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF15" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="36">
+      <c r="D16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="32">
         <v>1620062</v>
       </c>
       <c r="G16" s="3"/>
@@ -2808,70 +2821,70 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X16" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X16" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG16" s="43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2884,26 +2897,26 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="30" t="s">
-        <v>130</v>
+      <c r="R17" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="12"/>
@@ -2911,31 +2924,31 @@
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF17" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF17" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2948,68 +2961,68 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="30" t="s">
-        <v>130</v>
+      <c r="R18" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X18" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC18" s="10"/>
       <c r="AD18" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF18" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF18" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>93</v>
+      <c r="C19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3022,24 +3035,24 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="30" t="s">
-        <v>130</v>
+      <c r="R19" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W19" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="W19" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="12"/>
@@ -3047,31 +3060,31 @@
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF19" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3084,26 +3097,26 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="30" t="s">
-        <v>130</v>
+      <c r="R20" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W20" s="26" t="s">
-        <v>63</v>
+        <v>127</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="12"/>
@@ -3111,31 +3124,31 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF20" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF20" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3148,62 +3161,62 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="30" t="s">
-        <v>130</v>
+      <c r="R21" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X21" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA21" s="13"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF21" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF21" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3216,60 +3229,60 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="30" t="s">
-        <v>130</v>
+      <c r="R22" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="10"/>
       <c r="Z22" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="13"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF22" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF22" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3282,66 +3295,66 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="30" t="s">
-        <v>130</v>
+      <c r="R23" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X23" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA23" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC23" s="16"/>
       <c r="AD23" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF23" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF23" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3354,67 +3367,67 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="30" t="s">
-        <v>130</v>
+      <c r="R24" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X24" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X24" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA24" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC24" s="16"/>
       <c r="AD24" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF24" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF24" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="24">
+      <c r="C25" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="21">
         <v>1620039</v>
       </c>
       <c r="G25" s="3"/>
@@ -3428,68 +3441,68 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="30" t="s">
-        <v>130</v>
+      <c r="R25" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X25" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X25" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF25" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF25" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3502,62 +3515,62 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="30" t="s">
-        <v>130</v>
+      <c r="R26" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X26" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X26" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA26" s="13"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF26" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF26" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3570,60 +3583,60 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="30" t="s">
-        <v>130</v>
+      <c r="R27" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA27" s="13"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF27" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF27" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>93</v>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3636,58 +3649,58 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="30" t="s">
-        <v>130</v>
+      <c r="R28" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y28" s="10"/>
       <c r="Z28" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA28" s="13"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF28" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="AF28" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3700,64 +3713,64 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="30" t="s">
-        <v>130</v>
+      <c r="R29" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X29" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="X29" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z29" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA29" s="13"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF29" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF29" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>93</v>
+      <c r="C30" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3770,60 +3783,60 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="30" t="s">
-        <v>130</v>
+      <c r="R30" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y30" s="10"/>
       <c r="Z30" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA30" s="13"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF30" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF30" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>93</v>
+      <c r="C31" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3836,58 +3849,60 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="30" t="s">
-        <v>130</v>
+      <c r="R31" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y31" s="10"/>
       <c r="Z31" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA31" s="13"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF31" s="35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="38">
-        <v>41974</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="24">
-        <v>1620085</v>
+        <v>61</v>
+      </c>
+      <c r="AF31" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3901,68 +3916,63 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="V32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>130</v>
+      <c r="S32" s="3"/>
+      <c r="T32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="V32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="W32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="X32" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA32" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA32" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF32" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG32" s="32">
-        <v>2958286</v>
+        <v>127</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF32" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="38">
-        <v>42005</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="24">
-        <v>1620087</v>
+      <c r="A33" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="34">
+        <v>41974</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1620085</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -3977,60 +3987,67 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V33" s="30" t="s">
-        <v>130</v>
+      <c r="T33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD33" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE33" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF33" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF33" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG33" s="29">
+        <v>2958286</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="38">
-        <v>42461</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="24">
-        <v>1620090</v>
+      <c r="A34" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="34">
+        <v>42005</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1620087</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -4047,60 +4064,58 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W34" s="30" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD34" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE34" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF34" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AD34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF34" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="38">
-        <v>43031</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="24">
-        <v>1620093</v>
+      <c r="A35" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -4115,62 +4130,60 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
+      <c r="T35" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="U35" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X35" s="30" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="V35" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="Z35" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD35" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE35" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF35" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AB35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF35" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>93</v>
+      <c r="A36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="34">
+        <v>42461</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="21">
+        <v>1620090</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -4184,63 +4197,61 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="V36" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="W36" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="X36" s="30" t="s">
-        <v>130</v>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W36" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z36" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA36" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF36" s="35" t="s">
-        <v>63</v>
+        <v>127</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD36" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE36" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF36" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>93</v>
+      <c r="D37" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -4256,59 +4267,61 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W37" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X37" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y37" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA37" s="20" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="W37" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="X37" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y37" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA37" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC37" s="16"/>
       <c r="AD37" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF37" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF37" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>93</v>
+      <c r="A38" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="34">
+        <v>43031</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="21">
+        <v>1620093</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -4323,60 +4336,60 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
-      <c r="T38" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="T38" s="10"/>
       <c r="U38" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W38" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="X38" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y38" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA38" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF38" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD38" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE38" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF38" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>93</v>
+      <c r="A39" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -4392,59 +4405,59 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="X39" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y39" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA39" s="19" t="s">
-        <v>63</v>
+        <v>127</v>
+      </c>
+      <c r="AA39" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC39" s="16"/>
       <c r="AD39" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE39" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF39" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF39" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>93</v>
+      <c r="A40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -4460,55 +4473,59 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z40" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA40" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC40" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC40" s="16"/>
       <c r="AD40" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF40" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF40" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>93</v>
+      <c r="A41" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -4524,61 +4541,57 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
       <c r="T41" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V41" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z41" s="30" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z41" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC41" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="AC41" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="AD41" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF41" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF41" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>93</v>
+      <c r="C42" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -4594,54 +4607,54 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
       <c r="T42" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="30" t="s">
-        <v>130</v>
+      <c r="Z42" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA42" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB42" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF42" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="AF42" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="34">
         <v>43556</v>
       </c>
-      <c r="E43" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="24">
+      <c r="E43" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="21">
         <v>1620098</v>
       </c>
       <c r="G43" s="10"/>
@@ -4659,57 +4672,57 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X43" s="10"/>
       <c r="Y43" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z43" s="30" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="Z43" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC43" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD43" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE43" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF43" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AC43" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD43" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE43" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF43" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="34">
         <v>43730</v>
       </c>
-      <c r="E44" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="24">
+      <c r="E44" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="21">
         <v>1620099</v>
       </c>
       <c r="G44" s="10"/>
@@ -4727,55 +4740,55 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X44" s="10"/>
       <c r="Y44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z44" s="30" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="Z44" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AA44" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC44" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD44" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE44" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF44" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AC44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF44" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="34">
         <v>43831</v>
       </c>
-      <c r="E45" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="24">
+      <c r="E45" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="21">
         <v>1620101</v>
       </c>
       <c r="G45" s="10"/>
@@ -4793,58 +4806,58 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB45" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC45" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD45" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE45" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF45" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG45" s="32">
+        <v>127</v>
+      </c>
+      <c r="AC45" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD45" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE45" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF45" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG45" s="29">
         <v>2958453</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="34">
         <v>43831</v>
       </c>
-      <c r="E46" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="24">
+      <c r="E46" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="21">
         <v>1620103</v>
       </c>
       <c r="G46" s="10"/>
@@ -4862,51 +4875,51 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
       <c r="Z46" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB46" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC46" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD46" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE46" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF46" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AC46" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD46" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE46" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF46" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="24">
+      <c r="C47" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="21">
         <v>1620102</v>
       </c>
       <c r="G47" s="10"/>
@@ -4921,66 +4934,66 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X47" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y47" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA47" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB47" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC47" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="AB47" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC47" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="AD47" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE47" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF47" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG47" s="43" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="AF47" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG47" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="38">
-        <v>44342</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="24">
-        <v>1620102</v>
+      <c r="A48" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -4997,55 +5010,56 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA48" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB48" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE48" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF48" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG48" s="32">
-        <v>2958221</v>
+      <c r="Y48" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB48" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC48" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF48" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>93</v>
+      <c r="A49" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="34">
+        <v>44342</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="21">
+        <v>1620102</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -5062,55 +5076,54 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X49" s="10"/>
-      <c r="Y49" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z49" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA49" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB49" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC49" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF49" s="35" t="s">
-        <v>63</v>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA49" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF49" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG49" s="29">
+        <v>2958221</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="34">
         <v>44857</v>
       </c>
-      <c r="E50" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="24">
+      <c r="E50" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="21">
         <v>1620105</v>
       </c>
       <c r="G50" s="10"/>
@@ -5128,51 +5141,51 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA50" s="13"/>
       <c r="AB50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC50" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD50" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE50" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF50" s="34" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="AC50" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD50" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE50" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF50" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="34">
         <v>44861</v>
       </c>
-      <c r="E51" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="24">
+      <c r="E51" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="21">
         <v>1620106</v>
       </c>
       <c r="G51" s="10"/>
@@ -5190,56 +5203,56 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V51" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA51" s="13"/>
       <c r="AB51" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC51" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD51" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE51" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF51" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG51" s="32">
+        <v>61</v>
+      </c>
+      <c r="AC51" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD51" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE51" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF51" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG51" s="29">
         <v>2958259</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="34">
         <v>44864</v>
       </c>
-      <c r="E52" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="24">
+      <c r="E52" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="21">
         <v>1620107</v>
       </c>
       <c r="G52" s="10"/>
@@ -5257,51 +5270,51 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA52" s="13"/>
       <c r="AB52" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC52" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD52" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE52" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF52" s="34" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="AC52" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD52" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE52" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF52" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="34">
         <v>44882</v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="24">
+      <c r="E53" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="21">
         <v>1620108</v>
       </c>
       <c r="G53" s="10"/>
@@ -5319,53 +5332,53 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V53" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA53" s="13"/>
       <c r="AB53" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC53" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD53" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE53" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF53" s="34" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="AC53" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD53" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE53" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF53" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="34">
         <v>44896</v>
       </c>
-      <c r="E54" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="24">
+      <c r="E54" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="21">
         <v>1620109</v>
       </c>
       <c r="G54" s="10"/>
@@ -5383,239 +5396,239 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
       <c r="Z54" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA54" s="13"/>
       <c r="AB54" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC54" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD54" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE54" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF54" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG54" s="32">
+        <v>61</v>
+      </c>
+      <c r="AC54" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD54" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE54" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF54" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG54" s="29">
         <v>2958390</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="34">
         <v>45292</v>
       </c>
-      <c r="E55" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="24">
+      <c r="E55" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="21">
         <v>1620110</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z55" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA55" s="13"/>
       <c r="AB55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC55" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD55" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE55" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF55" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG55" s="32">
+        <v>61</v>
+      </c>
+      <c r="AE55" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF55" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG55" s="29">
         <v>21111</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="34">
         <v>45292</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="24">
+      <c r="E56" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="21">
         <v>1620111</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z56" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA56" s="13"/>
       <c r="AB56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC56" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD56" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE56" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF56" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG56" s="32">
+        <v>61</v>
+      </c>
+      <c r="AE56" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF56" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG56" s="29">
         <v>25768</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D57" s="38"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="14"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5642,65 +5655,77 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="40"/>
-      <c r="F58" s="22"/>
-      <c r="R58" s="21">
+    <row r="58" spans="1:33" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="44">
         <v>30</v>
       </c>
-      <c r="T58" s="21">
+      <c r="S58" s="44"/>
+      <c r="T58" s="44">
         <v>27</v>
       </c>
-      <c r="U58" s="21">
+      <c r="U58" s="44">
         <v>27</v>
       </c>
-      <c r="V58" s="21">
+      <c r="V58" s="44">
         <v>29</v>
       </c>
-      <c r="W58" s="21">
+      <c r="W58" s="44">
         <v>29</v>
       </c>
-      <c r="X58" s="21">
+      <c r="X58" s="44">
         <v>29</v>
       </c>
-      <c r="Y58" s="21">
+      <c r="Y58" s="44">
         <v>27</v>
       </c>
-      <c r="Z58" s="21">
+      <c r="Z58" s="44">
         <v>29</v>
       </c>
-      <c r="AA58" s="23">
+      <c r="AA58" s="45">
         <v>29</v>
       </c>
-      <c r="AB58" s="21">
+      <c r="AB58" s="44">
         <v>26</v>
       </c>
-      <c r="AC58" s="21">
+      <c r="AC58" s="44">
         <v>29</v>
       </c>
-      <c r="AD58" s="21">
+      <c r="AD58" s="44">
         <f>29</f>
         <v>29</v>
       </c>
-      <c r="AE58" s="21">
+      <c r="AE58" s="44">
         <v>26</v>
       </c>
-      <c r="AF58" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG58" s="33"/>
+      <c r="AF58" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG58" s="42"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
-        <v>143</v>
+      <c r="A59" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="AF58" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
